--- a/output/Models/Pollock_eat_Euph_AIC.xlsx
+++ b/output/Models/Pollock_eat_Euph_AIC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catalinaburch/Documents/SMEA/Thesis/ThesisRepo/Alaska_Foodwebs/output/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA6588E-EA9E-DD41-B0E4-DFE71DAB9D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D053E569-A1CD-8C4A-A80B-9AA0B7797F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="3000" yWindow="1340" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pollock_eat_Euph_AIC" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -568,7 +565,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,46 +920,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N2" sqref="N2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="18" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N2">
+      <c r="N2" s="2">
         <v>0.99954540000000003</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>0.43449480000000001</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>1</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>1</v>
       </c>
     </row>
